--- a/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22515" windowHeight="5085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22512" windowHeight="5088"/>
   </bookViews>
   <sheets>
-    <sheet name="Contact" sheetId="1" r:id="rId1"/>
+    <sheet name="Contact" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Title</t>
   </si>
@@ -61,13 +60,28 @@
     <t>test12345</t>
   </si>
   <si>
-    <t>test123455457</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tieto</t>
+  </si>
+  <si>
+    <t>test123456</t>
+  </si>
+  <si>
+    <t>test1234567</t>
+  </si>
+  <si>
+    <t>test123456789</t>
   </si>
 </sst>
 </file>
@@ -109,9 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,80 +435,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>